--- a/model_exports/labels/2.0_False_False_6_0.xlsx
+++ b/model_exports/labels/2.0_False_False_6_0.xlsx
@@ -453,76 +453,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-536414184204800001</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-536957598252417024</t>
+          <t>t-517204809452380161</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-729342722264420352</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-793443964900737024</t>
+          <t>t-833214575512150018</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-1016827484665499650</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-1016832637904695296</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,20 +544,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-575319219870437377</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,7 +596,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-575466667171426304</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -609,7 +609,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-608798073561612289</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-686267623462408192</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,20 +648,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-500035862709948417</t>
+          <t>t-712108446167011328</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,7 +674,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-500685725482770433</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,20 +687,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-501752547083059200</t>
+          <t>t-773705145389645824</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-830539164638703616</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -713,11 +713,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-517204809452380161</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -726,33 +726,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,46 +765,46 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,20 +817,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,7 +843,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-638852256234913792</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-658615758751211520</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,37 +869,37 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-658616745809330176</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-658617481574092800</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -908,20 +908,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,7 +960,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-924109747627929600</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -973,24 +973,24 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-968259732858376192</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -999,11 +999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,33 +1051,33 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-1006110887999045632</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-1006321460951027717</t>
+          <t>t-975411428663345152</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-754609055683915776</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,33 +1103,33 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-863147106038624256</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-507610683022643200</t>
+          <t>t-863168507747454977</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-591245619513163777</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-573406774969044992</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,46 +1168,46 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-573566918876995584</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-574621995633111040</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-637507255093624832</t>
+          <t>t-770981711182237696</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,11 +1220,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-637635998185320448</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -1233,24 +1233,24 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-638007752250396672</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,20 +1272,20 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-852681395487035392</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,33 +1311,33 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-958555465675362304</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-989808164907319296</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,20 +1350,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-903265153931608064</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,20 +1389,20 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-788842589554343938</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-593974566453555201</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,72 +1415,72 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-621832039763849218</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-621845142903754752</t>
+          <t>t-910574474956812289</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-717023541078728704</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-611854657594486784</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-618395942002102272</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,76 +1506,76 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-585851418843615232</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B86" t="n">
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1584,20 +1584,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-548325093256884224</t>
+          <t>t-672497431242756096</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,24 +1610,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-512768543989825541</t>
+          <t>t-676490487717625856</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-676517665188507650</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,24 +1636,24 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-513123960192794624</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -1662,11 +1662,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-670312803173986304</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1675,50 +1675,50 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-927521858815131648</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1005217349610426371</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-524878421172953088</t>
+          <t>t-540815358715002880</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-568441199297761281</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,20 +1727,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-568878359158984704</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,11 +1753,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-986144781721104384</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-552005598615597057</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -1779,7 +1779,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-552017511018168320</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-552021252442169344</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,20 +1805,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-552065463610802176</t>
+          <t>t-928583361618169856</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-552468777791524864</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,20 +1831,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-575924078906904576</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-687545498014760960</t>
+          <t>t-547652103607697408</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1857,7 +1857,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-862822528103759872</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,11 +1870,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-936531630868529152</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -1883,24 +1883,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-955387095228567552</t>
+          <t>t-546995440701296643</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-956627624150880257</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-611996097129619456</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-624161549528096768</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,7 +1948,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-862822528103759872</t>
+          <t>t-625832003070509056</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,59 +1961,59 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-547131830642569216</t>
+          <t>t-626848405877301248</t>
         </is>
       </c>
       <c r="B118" t="n">
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-559857374312529920</t>
+          <t>t-611182304984109057</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-559902019893202944</t>
+          <t>t-894558986925744129</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-560163999057448960</t>
+          <t>t-901151504714870784</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-952138958368051200</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -2026,37 +2026,37 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-952754172880863232</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-612099863975583744</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2065,33 +2065,33 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-560903834407817217</t>
+          <t>t-612781430335082496</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-568623295811194880</t>
+          <t>t-612783809587580928</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-611996097129619456</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -2104,37 +2104,37 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-657221044642684928</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-886294080040423425</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-658242856386187264</t>
+          <t>t-1036699556560470016</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,50 +2169,50 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-821731492581744642</t>
+          <t>t-860938986382135296</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-821745652803764226</t>
+          <t>t-861076485599354880</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-902218968345272321</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -2221,59 +2221,59 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-988107827615952898</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B139" t="n">
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B141" t="n">
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-696837842702446592</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,11 +2286,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-1031211148908081152</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2299,7 +2299,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-883080365442838528</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -2312,20 +2312,20 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-883215183442739200</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-992428512744222721</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -2364,11 +2364,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1039228208804233216</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -2377,33 +2377,33 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-1054403005032947712</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-898119475089686528</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,7 +2416,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-898375447507030017</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -2429,24 +2429,24 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-898397795245215744</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -2455,7 +2455,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,24 +2468,24 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-682987194840150016</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,20 +2520,20 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-870028367990599681</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-898515685369946113</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,20 +2559,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-900495545885757441</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-900708018983227393</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,11 +2585,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-860527262709493760</t>
+          <t>t-952979792495816704</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -2598,24 +2598,24 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-1009549219240308737</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-1014570924681687042</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -2624,72 +2624,72 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-536338799517634560</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-640924573647503360</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-641489320088436736</t>
+          <t>t-533407970244456448</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-652481072199036928</t>
+          <t>t-561309176475824128</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-697902764966301696</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -2702,7 +2702,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,20 +2728,20 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-673774894543470592</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-911712205657317376</t>
+          <t>t-673911765848035328</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,20 +2754,20 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-925358435398488064</t>
+          <t>t-796087988140834817</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,11 +2780,11 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -2793,46 +2793,46 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-594878604397432832</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-1039643454140231684</t>
+          <t>t-647384012202356736</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1039968877537456128</t>
+          <t>t-648159002224914436</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-626642400555892737</t>
+          <t>t-648232794137718784</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-626741309693394948</t>
+          <t>t-648426685910618112</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,7 +2858,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-626870204199534598</t>
+          <t>t-726061174727532544</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,72 +2871,72 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-732832771106865153</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-697902764966301696</t>
+          <t>t-775760180936048640</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-775760740204552192</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-775766510182731776</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-775772257327128576</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-775805122920189952</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-776165588917944320</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-683790340701073408</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,7 +2988,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,11 +3001,11 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,20 +3027,20 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-936972059766415360</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-653152901892739072</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,50 +3053,50 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-653993411570192384</t>
+          <t>t-957285309796044800</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-957305309328039936</t>
         </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-681483416165048320</t>
+          <t>t-957621820626276353</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-716748651113091072</t>
+          <t>t-958690487875055616</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,20 +3105,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-716774298296389632</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,20 +3131,20 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-772514094360305664</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,11 +3157,11 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,11 +3170,11 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-698062078922375169</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
@@ -3183,7 +3183,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-795702151049834496</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -3196,7 +3196,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1041944531015483392</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -3209,11 +3209,11 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1042049144620285953</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
@@ -3222,33 +3222,33 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-646786233809539072</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-561705902466957314</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,11 +3261,11 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-666910428551897088</t>
+          <t>t-697026011876233216</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-795702151049834496</t>
+          <t>t-791567733695606784</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-649689751415599105</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-636560790015877120</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-636561226298970112</t>
+          <t>t-788874378666737664</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-636561581355204609</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-636600809573220352</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-636742652692688896</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,7 +3378,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,11 +3391,11 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3404,46 +3404,46 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-854766668387684352</t>
+          <t>t-968874912806068224</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-855160087563907072</t>
+          <t>t-817491496857255936</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-855212425251086337</t>
+          <t>t-615316042294890496</t>
         </is>
       </c>
       <c r="B231" t="n">
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-891969624929075201</t>
+          <t>t-637980934705422337</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,37 +3456,37 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-892105609071349760</t>
+          <t>t-648439576441171968</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-892129259686428672</t>
+          <t>t-649621017187512320</t>
         </is>
       </c>
       <c r="B234" t="n">
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1049061003617607680</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,11 +3508,11 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1049351090909667329</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -3521,11 +3521,11 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1050209065153036288</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -3534,11 +3534,11 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-567287806645395457</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -3547,24 +3547,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-637980934705422337</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-659011315088781312</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,46 +3586,46 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-659473740955189248</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-1050145290718564352</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-729341140499976193</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-729421969410564096</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-729436964269658112</t>
+          <t>t-975332165528576000</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-729446762138591232</t>
+          <t>t-1028993321757077505</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,20 +3677,20 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-729454167735959552</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-729749802209054720</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,33 +3703,33 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-612283618052825088</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-634366408906768384</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-837738761547091968</t>
+          <t>t-719978473687633922</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1042391419745435648</t>
+          <t>t-981921278876684288</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-765721842803802112</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,46 +3781,46 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-803234433000148994</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-803236909183107073</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-607899372177747968</t>
+          <t>t-803260822801649664</t>
         </is>
       </c>
       <c r="B260" t="n">
         <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-803260889940062209</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,7 +3833,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-771587937746071552</t>
+          <t>t-803271446357282816</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,59 +3846,59 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-1055172080499515392</t>
+          <t>t-667518003613818880</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1055204302220943368</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B265" t="n">
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-876856640372387842</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-655890642334257152</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,7 +3911,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-886426015374946304</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,11 +3924,11 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -3937,46 +3937,46 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-736702899519004674</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B272" t="n">
         <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-668278058953084928</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,33 +3989,33 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-803284826191171584</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-736405703838044160</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-715468390047961088</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4028,7 +4028,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,20 +4041,20 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-913012097595867137</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B278" t="n">
         <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,33 +4067,33 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B280" t="n">
         <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B281" t="n">
         <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-971386931857772544</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-749466819581411328</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-751197637794230272</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-761251305100902400</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,33 +4171,33 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-1009997647032344576</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-897110070059728897</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-897827875231080448</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-803919035318628352</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-764984507686490112</t>
+          <t>t-804312701002457088</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,59 +4236,59 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-895778141523894272</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B295" t="n">
         <v>1</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,20 +4301,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-1032899444918898688</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,20 +4340,20 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1042371802121596928</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-864828748495020032</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,24 +4366,24 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-781155273763192832</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-897110070059728897</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-897827875231080448</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,7 +4405,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-850470638624133120</t>
         </is>
       </c>
       <c r="B306" t="n">
@@ -4418,50 +4418,50 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-939854628749004801</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-855194797681897472</t>
+          <t>t-884885746984681473</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C310" t="n">
         <v>0</v>
@@ -4470,20 +4470,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-855248575567147008</t>
+          <t>t-884938114657128448</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-966639239407525888</t>
+          <t>t-902559120888184833</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,7 +4496,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-882704580865404928</t>
+          <t>t-903611928827674624</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,11 +4509,11 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-880054371417018369</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,11 +4522,11 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -4535,20 +4535,20 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,11 +4561,11 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-1034792477096652801</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -4574,50 +4574,50 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-630691491766251520</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-702986489890775040</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-703410728628305920</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,59 +4626,59 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-941194598453571586</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-621860106481762304</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,72 +4691,72 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-517603456123944960</t>
         </is>
       </c>
       <c r="B328" t="n">
         <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-517609652138569728</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-518412519053221888</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-520694218625675264</t>
+          <t>t-519245102263574528</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-519387709392314368</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-519393743326441472</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,11 +4769,11 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-519395800687083520</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-519401695307390976</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-635439309563260929</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,11 +4834,11 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-635461097114484736</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,20 +4847,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-635467880918818816</t>
         </is>
       </c>
       <c r="B340" t="n">
         <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-661802861446209536</t>
+          <t>t-635469518022803456</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,24 +4873,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-635491308438728704</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-635718998781390848</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -4899,11 +4899,11 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-636228687013265410</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C344" t="n">
         <v>0</v>
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-1006187748338864128</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1006198330727247872</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1006207380676280320</t>
+          <t>t-984081755006259201</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,20 +4951,20 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1006582449827209216</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,7 +4977,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-801681235982557184</t>
+          <t>t-676836902981513216</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,7 +4990,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,24 +5003,24 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B352" t="n">
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-800968114653401088</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>0</v>
@@ -5029,24 +5029,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-540907891566575616</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-541174080833978368</t>
+          <t>t-737154199411122176</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>0</v>
@@ -5055,11 +5055,11 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-544508576757477376</t>
+          <t>t-901639048464388096</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -5068,20 +5068,20 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-544546124984762370</t>
+          <t>t-901662243594612737</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-544574124832468992</t>
+          <t>t-901835893232857088</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,37 +5094,37 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-544578399596187648</t>
+          <t>t-901991202857377792</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-544615900180393984</t>
+          <t>t-902096694422228992</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-544793457190268928</t>
+          <t>t-902156696407216129</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5133,11 +5133,11 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-544806009018265601</t>
+          <t>t-902188288789925889</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-545012520793436160</t>
+          <t>t-902258946840313856</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,33 +5159,33 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-545215683404267523</t>
+          <t>t-902339386959958016</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-576412478135005185</t>
+          <t>t-902474134315302912</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-577791187240787968</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,33 +5198,33 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-578574154607280128</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>0</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-595190714205634560</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B368" t="n">
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-603463396365836289</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-636255173036388352</t>
+          <t>t-800968114653401088</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-677902230650003457</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>1</v>
@@ -5263,37 +5263,37 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-691624168824115200</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-691706624386404353</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -5302,72 +5302,72 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-951835055445413893</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-1049943076859461632</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-576412478135005185</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,20 +5406,20 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,33 +5432,33 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B385" t="n">
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-769394896344064001</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,20 +5471,20 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,7 +5497,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-809171890690523137</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B390" t="n">
@@ -5510,20 +5510,20 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B391" t="n">
         <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-925333063336321024</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,46 +5536,46 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-974595772317659137</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B393" t="n">
         <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1048194085624995840</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-1060529365962948608</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,11 +5588,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-948989121611075584</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
         <v>0</v>
@@ -5601,7 +5601,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-800633887386988544</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B398" t="n">
@@ -5614,33 +5614,33 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-652334979544948736</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B400" t="n">
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-981811338774183936</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,11 +5653,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-982165823350423552</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,111 +5666,111 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-712150675111727105</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-818362228881719296</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>1</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-818369931054030848</t>
+          <t>t-846728089912643588</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-818390305326137344</t>
+          <t>t-652334979544948736</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-818474161949601796</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-818513625468010496</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-818701658280628224</t>
+          <t>t-1050114319227195392</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-818709014498443264</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B410" t="n">
         <v>1</v>
       </c>
       <c r="C410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-819113813505146880</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B411" t="n">
@@ -5783,20 +5783,20 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,37 +5809,37 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-958216984176427008</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-972395558735368192</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B415" t="n">
         <v>1</v>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
         <v>1</v>
@@ -5848,7 +5848,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B417" t="n">
@@ -5861,7 +5861,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-979424136656125952</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,20 +5874,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,37 +5900,37 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B421" t="n">
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B422" t="n">
         <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>1</v>
@@ -5939,11 +5939,11 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
         <v>0</v>
@@ -5952,33 +5952,33 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-960782723957870592</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B426" t="n">
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-969482754407661568</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,24 +5991,24 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-731437259828924417</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
         <v>1</v>
@@ -6017,46 +6017,46 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-577532478912663552</t>
+          <t>t-580822339648122880</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-581167008596758528</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-778479315071664128</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B433" t="n">
@@ -6069,7 +6069,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1006487935733174274</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,33 +6082,33 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B435" t="n">
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B436" t="n">
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-737201412497649664</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B437" t="n">
@@ -6121,11 +6121,11 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-737877218718797825</t>
+          <t>t-1027292918111825921</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C438" t="n">
         <v>1</v>
@@ -6134,11 +6134,11 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-738015379373625344</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>1</v>
@@ -6147,89 +6147,89 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-738097397058932736</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-738253541266075652</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B441" t="n">
         <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-738419452778274816</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-738714074352123904</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-957917970390450177</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>1</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-743692015158726656</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
         <v>0</v>
@@ -6238,33 +6238,33 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-743726128003588096</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B448" t="n">
         <v>1</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,24 +6277,24 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-728815708801531904</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C451" t="n">
         <v>1</v>
@@ -6303,11 +6303,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-728860742099849216</t>
+          <t>t-717265029461049349</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C452" t="n">
         <v>0</v>
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
         <v>1</v>
@@ -6342,20 +6342,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-613277694457856004</t>
+          <t>t-800696529770151938</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-955871714914766849</t>
         </is>
       </c>
       <c r="B456" t="n">
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,24 +6407,24 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-1019348620489969664</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1021061872274018305</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C461" t="n">
         <v>1</v>
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,63 +6446,63 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B463" t="n">
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-623896530324467712</t>
+          <t>t-1017675550318612480</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-907976446286680066</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6511,37 +6511,37 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-908018109373730816</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-664402656019005440</t>
+          <t>t-641169109116293120</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,24 +6550,24 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B471" t="n">
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-660041764225589248</t>
+          <t>t-801672831046221825</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
         <v>0</v>
@@ -6576,46 +6576,46 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-801706221803806720</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-671784280259866624</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B474" t="n">
         <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-676501548063657984</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-835605594534981633</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,37 +6654,37 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-835708598772727808</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B480" t="n">
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-734423204488445952</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -6693,24 +6693,24 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B482" t="n">
         <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-979633616404844544</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,24 +6719,24 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-737207145662435328</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-737378615814393856</t>
+          <t>t-692403922451992576</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
         <v>1</v>
@@ -6745,11 +6745,11 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-737618316705964032</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
         <v>0</v>
@@ -6758,7 +6758,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-737643792757587968</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B487" t="n">
@@ -6771,7 +6771,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-737668431374389250</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,20 +6784,20 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-737882738997530625</t>
+          <t>t-952055483354972160</t>
         </is>
       </c>
       <c r="B489" t="n">
         <v>1</v>
       </c>
       <c r="C489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-738072611704430592</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,20 +6810,20 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-738383058857021440</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-736607968997838848</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,11 +6836,11 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C493" t="n">
         <v>1</v>
@@ -6849,33 +6849,33 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-949613613874077704</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-737663862317682689</t>
         </is>
       </c>
       <c r="B496" t="n">
@@ -6888,20 +6888,20 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-737736248970911744</t>
         </is>
       </c>
       <c r="B497" t="n">
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,7 +6914,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,72 +6927,72 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-737766517157330945</t>
         </is>
       </c>
       <c r="B500" t="n">
         <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-737944067741454336</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-884308996835991554</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-760420119554076674</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,7 +7031,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-775906484295204864</t>
+          <t>t-957730126799802368</t>
         </is>
       </c>
       <c r="B508" t="n">
@@ -7044,20 +7044,20 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>0</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-906552804285861889</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B510" t="n">
@@ -7070,33 +7070,33 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-740249467828482048</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-740256345773985793</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-831171283400409088</t>
+          <t>t-743816866171326464</t>
         </is>
       </c>
       <c r="B513" t="n">
@@ -7109,11 +7109,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-754249103434022912</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>0</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-952704809529851906</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>0</v>
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-1041726034662633472</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,11 +7148,11 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-852898298344099840</t>
+          <t>t-760176866099601408</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C517" t="n">
         <v>1</v>
@@ -7161,7 +7161,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-861335479475634176</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,20 +7174,20 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-890626982773481473</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B520" t="n">
@@ -7200,11 +7200,11 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>0</v>
@@ -7213,33 +7213,33 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-949248780280516608</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-956067919263346688</t>
+          <t>t-844564313012670464</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,46 +7265,46 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-956083408882536448</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B526" t="n">
         <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-1028077071480832000</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1030184521969410055</t>
+          <t>t-852898298344099840</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,37 +7343,37 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-891629267066290176</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-904503608246362112</t>
+          <t>t-886643817893560320</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-890626982773481473</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,7 +7382,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-572446866039697408</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,33 +7395,33 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-949166298210082816</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-949248780280516608</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-1017566472292495360</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,20 +7460,20 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,20 +7486,20 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-814010823689408512</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,11 +7525,11 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-891629267066290176</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C546" t="n">
         <v>0</v>
@@ -7538,20 +7538,20 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-898971629665099776</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-956368490293800960</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-956387965382610945</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,11 +7577,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-529938272265703424</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>0</v>
@@ -7590,46 +7590,46 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,7 +7655,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B556" t="n">
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,24 +7694,24 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
         <v>1</v>
@@ -7720,7 +7720,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-648493309824925696</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-664426560234110976</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,7 +7746,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B563" t="n">
@@ -7759,7 +7759,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B564" t="n">
@@ -7772,24 +7772,24 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,11 +7798,11 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
         <v>1</v>
@@ -7811,7 +7811,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,7 +7824,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B569" t="n">
@@ -7837,7 +7837,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,37 +7850,37 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-835120033412038656</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-854250685419986949</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C573" t="n">
         <v>1</v>
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-854262837673246720</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C574" t="n">
         <v>1</v>
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,24 +7915,24 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-918517038053814277</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-935721877053505536</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C577" t="n">
         <v>1</v>
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-940565575226372102</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-940637216757477377</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,11 +7967,11 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
         <v>1</v>
@@ -7980,50 +7980,50 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-697693466298552321</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-697911341554610176</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C584" t="n">
         <v>0</v>
@@ -8032,46 +8032,46 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-857957864354086912</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,20 +8084,20 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-857974981891719168</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B589" t="n">
         <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-532513757776183296</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,7 +8123,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-545488523856338944</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B592" t="n">
@@ -8136,7 +8136,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,46 +8149,46 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,20 +8201,20 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-828910647861616640</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-708275780988473345</t>
+          <t>t-829261659726295045</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-709001129091174403</t>
+          <t>t-837558511772938241</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-709281433978687488</t>
+          <t>t-837704571640246272</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,46 +8253,46 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-890567544695906304</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-727080149770866688</t>
+          <t>t-918517038053814277</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-740813200766214144</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-930305225726054400</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,24 +8318,24 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C608" t="n">
         <v>1</v>
@@ -8344,11 +8344,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-842271490141634560</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
         <v>0</v>
@@ -8357,20 +8357,20 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-842322052103122944</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-842905808266448896</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,24 +8383,24 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-842910185718931456</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,37 +8409,37 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-918078962173075457</t>
+          <t>t-820295860747542529</t>
         </is>
       </c>
       <c r="B614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-918257100547014658</t>
+          <t>t-820993538456289280</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-857957864354086912</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,11 +8448,11 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-857974981891719168</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
         <v>0</v>
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-948796201708675072</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,11 +8474,11 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-948886764244033537</t>
         </is>
       </c>
       <c r="B619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C619" t="n">
         <v>1</v>
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-964120690952564737</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,11 +8513,11 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-538727466139803648</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
         <v>1</v>
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-546954418067738625</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-547052080943214593</t>
+          <t>t-605261202822807552</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-547052404026249217</t>
+          <t>t-605672293654654976</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-547288951820521472</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-547333815882887168</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-547368132457689088</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-547431547935412224</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-547610562692009985</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,20 +8630,20 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-547694551637700608</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B631" t="n">
         <v>1</v>
       </c>
       <c r="C631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-768634144851013633</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,59 +8669,59 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-769506262551715840</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B634" t="n">
         <v>1</v>
       </c>
       <c r="C634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-929369497420685312</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-1000752833484881921</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-1001352081465212928</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B637" t="n">
         <v>1</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-521700184376770560</t>
+          <t>t-789409624138985476</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-789409631646785537</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,20 +8747,20 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,20 +8799,20 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-525880451999617025</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,24 +8825,24 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-922601399271112704</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,11 +8864,11 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,20 +8877,20 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-699788036561743872</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-547033780322455552</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-547601049230782464</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-548131100095442945</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,20 +8929,20 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-668452855993511936</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B654" t="n">
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-661588229892673536</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-801312317355003904</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,20 +9007,20 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-822370054381522945</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-764336375894306816</t>
+          <t>t-989542585978052610</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-764417813717086208</t>
+          <t>t-791933405902442497</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
         <v>0</v>
@@ -9046,11 +9046,11 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-773077201063407617</t>
+          <t>t-664089575191478272</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-785106169677230080</t>
+          <t>t-740483903366926337</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-785108107227561984</t>
+          <t>t-777029515289563136</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-785110315553787904</t>
+          <t>t-777052253362335745</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-785111654228856832</t>
+          <t>t-825956164366172160</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,7 +9111,7 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-785153740848308225</t>
+          <t>t-825956302023163905</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,7 +9124,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-785284230573993984</t>
+          <t>t-825967811814125568</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,7 +9137,7 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-785337680368467968</t>
+          <t>t-825983840988467200</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,33 +9150,33 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-785343194607202304</t>
+          <t>t-545394272619331584</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-785389967123984386</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-786190856218746880</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,37 +9189,37 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-786491706409492481</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B674" t="n">
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-919895715089932288</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,11 +9241,11 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C678" t="n">
         <v>1</v>
@@ -9254,37 +9254,37 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-734985227739619329</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-703883305427427329</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,24 +9293,24 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-704164134657486848</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-941661763132579840</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-594000547591553024</t>
+          <t>t-928119470215847936</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,11 +9332,11 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-594263552824741888</t>
+          <t>t-695999176518184960</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,20 +9345,20 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-594718318050684929</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B686" t="n">
         <v>1</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-595757559006507011</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-780018288940158976</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-781093621592383488</t>
+          <t>t-930711486019854336</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-931775243361779712</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,7 +9410,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-839272244895309824</t>
+          <t>t-964122358905823232</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-965551093982769152</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,37 +9436,37 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-620194547256029184</t>
+          <t>t-1060932314279170048</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-795497536291094528</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,46 +9475,46 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B697" t="n">
         <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-674136729771577344</t>
+          <t>t-941530453147836416</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-1027038929319411712</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,11 +9527,11 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-843318937064366080</t>
+          <t>t-1027057881365901312</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-1027179632922046467</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-703883305427427329</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-704164134657486848</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,20 +9579,20 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B704" t="n">
         <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,7 +9605,7 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,76 +9618,76 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-962542177514500096</t>
         </is>
       </c>
       <c r="B707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-691264325659422721</t>
+          <t>t-638407777333850112</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-691280497184362497</t>
+          <t>t-729180420265279489</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-729281192772542465</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-905053100729356288</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
         <v>1</v>
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-785264263749308416</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-785310124797669377</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-785316828025421824</t>
+          <t>t-605944627380817920</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-785325402981924866</t>
+          <t>t-819830340390830081</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-785347096031268864</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-935268837662052353</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-935313787321585664</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-935539265307660289</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,50 +9800,50 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-935690311879282688</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-936855089326604288</t>
         </is>
       </c>
       <c r="B722" t="n">
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-702431733740920832</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-702439207684464640</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
         <v>1</v>
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-883957999576002561</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-946177924222222336</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,24 +9878,24 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-639809419102937088</t>
         </is>
       </c>
       <c r="B727" t="n">
         <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B728" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C728" t="n">
         <v>1</v>
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-733197295139741697</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,11 +9930,11 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-928096679089209344</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C731" t="n">
         <v>1</v>
@@ -9943,14 +9943,14 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-940573035752386560</t>
+          <t>t-928096679089209344</t>
         </is>
       </c>
       <c r="B732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
